--- a/Document/EnvironmentTest.xlsx
+++ b/Document/EnvironmentTest.xlsx
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
